--- a/links/links.xlsx
+++ b/links/links.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">politize</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://pt.wikipedia.org/wiki/Impeachment_de_Fernando_Collor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pt.wikipedia.org/wiki/Casseta_%26_Planeta</t>
   </si>
   <si>
     <t xml:space="preserve">globo</t>
@@ -59,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,6 +88,11 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,13 +137,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -261,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +306,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -303,10 +315,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -315,7 +335,8 @@
     <hyperlink ref="B2" r:id="rId2" display="https://educacao.uol.com.br/disciplinas/historia-brasil/impeachment-collor-foi-primeiro-alvo-de-impeachment-na-america-latina.htm"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.todamateria.com.br/plano-collor/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://pt.wikipedia.org/wiki/Impeachment_de_Fernando_Collor"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://oglobo.globo.com/economia/noticia/2024/06/30/1994-foi-o-ano-do-real-e-do-tetra-da-morte-de-senna-da-novela-a-viagem-relembre.ghtml"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://pt.wikipedia.org/wiki/Casseta_%26_Planeta"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://oglobo.globo.com/economia/noticia/2024/06/30/1994-foi-o-ano-do-real-e-do-tetra-da-morte-de-senna-da-novela-a-viagem-relembre.ghtml"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/links/links.xlsx
+++ b/links/links.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">politize</t>
   </si>
@@ -46,13 +46,121 @@
     <t xml:space="preserve">https://pt.wikipedia.org/wiki/Impeachment_de_Fernando_Collor</t>
   </si>
   <si>
-    <t xml:space="preserve">https://pt.wikipedia.org/wiki/Casseta_%26_Planeta</t>
+    <t xml:space="preserve">só os anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www2.camara.leg.br/atividade-legislativa/plenario/discursos/escrevendohistoria/destaque-de-materias/20-anos-do-impeachment</t>
   </si>
   <si>
     <t xml:space="preserve">globo</t>
   </si>
   <si>
     <t xml:space="preserve">https://oglobo.globo.com/economia/noticia/2024/06/30/1994-foi-o-ano-do-real-e-do-tetra-da-morte-de-senna-da-novela-a-viagem-relembre.ghtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.anpuhpb.org/anais_xiii_eeph/textos/ST%2004%20-%20Helena%20Amanda%20Lisboa%20da%20Silva%20TC.PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.terra.com.br/diversao/musica/as-10-melhores-bandas-de-rock-nacional-dos-anos-90,09d9d7f043cd3c9bc43dcf8057853597skojj30x.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observatorio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://observatorio3setor.org.br/musica-lancada-ha-27-anos-mostra-o-descaso-do-brasil-de-hoje/#:~:text=Em%20um%20trecho%2C%20eles%20relatam,termina%20com%20vela%20e%20caixão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.politize.com.br/estetica-politica-dos-racionais/#:~:text=Os%20Racionais%20foram%20pioneiros%20em,negra%20dentro%20das%20periferias%20urbanas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fora de serie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forasdeserie.com/a-historia-da-mtv-brasil/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.terra.com.br/diversao/tv/fala-vj/videos/mtv-mudou-a-forma-de-olhar-e-se-comunicar-com-os-jovens,61e524f0587ceee1060b0e97c3d3f1b7bc1ykxyg.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerdloja</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.nerdloja.com/blogs/nerd-noob/o-que-realmente-causou-o-fim-da-mtv-brasil-17#:~:text=Em%20resumo%2C%20a%20MTV%20Brasil,falência%20da%20emissora%20em%202013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=FkFc6uK83Cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uol.com.br/splash/noticias/2023/07/28/incendio-no-xuxa-park-quase-causou-fim-da-carreira-de-xuxa-com-as-criancas.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado de minas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.em.com.br/app/noticia/cultura/2023/07/28/interna_cultura,1526393/incendio-no-xuxa-park-quase-causou-fim-da-carreira-de-xuxa-com-as-criancas.shtmlhttps://www.em.com.br/app/noticia/cultura/2023/07/28/interna_cultura,1526393/incendio-no-xuxa-park-quase-causou-fim-da-carreira-de-xuxa-com-as-criancas.shtml</t>
   </si>
 </sst>
 </file>
@@ -273,10 +381,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,21 +420,104 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -335,8 +526,18 @@
     <hyperlink ref="B2" r:id="rId2" display="https://educacao.uol.com.br/disciplinas/historia-brasil/impeachment-collor-foi-primeiro-alvo-de-impeachment-na-america-latina.htm"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.todamateria.com.br/plano-collor/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://pt.wikipedia.org/wiki/Impeachment_de_Fernando_Collor"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://pt.wikipedia.org/wiki/Casseta_%26_Planeta"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www2.camara.leg.br/atividade-legislativa/plenario/discursos/escrevendohistoria/destaque-de-materias/20-anos-do-impeachment"/>
     <hyperlink ref="B6" r:id="rId6" display="https://oglobo.globo.com/economia/noticia/2024/06/30/1994-foi-o-ano-do-real-e-do-tetra-da-morte-de-senna-da-novela-a-viagem-relembre.ghtml"/>
+    <hyperlink ref="B7" r:id="rId7" display="http://www.anpuhpb.org/anais_xiii_eeph/textos/ST%2004%20-%20Helena%20Amanda%20Lisboa%20da%20Silva%20TC.PDF"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://www.terra.com.br/diversao/musica/as-10-melhores-bandas-de-rock-nacional-dos-anos-90,09d9d7f043cd3c9bc43dcf8057853597skojj30x.html"/>
+    <hyperlink ref="B9" r:id="rId9" location=":~:text=Em%20um%20trecho%2C%20eles%20relatam,termina%20com%20vela%20e%20caixão" display="https://observatorio3setor.org.br/musica-lancada-ha-27-anos-mostra-o-descaso-do-brasil-de-hoje/#:~:text=Em%20um%20trecho%2C%20eles%20relatam,termina%20com%20vela%20e%20caixão"/>
+    <hyperlink ref="B10" r:id="rId10" location=":~:text=Os%20Racionais%20foram%20pioneiros%20em,negra%20dentro%20das%20periferias%20urbanas" display="https://www.politize.com.br/estetica-politica-dos-racionais/#:~:text=Os%20Racionais%20foram%20pioneiros%20em,negra%20dentro%20das%20periferias%20urbanas"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://forasdeserie.com/a-historia-da-mtv-brasil/"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://www.terra.com.br/diversao/tv/fala-vj/videos/mtv-mudou-a-forma-de-olhar-e-se-comunicar-com-os-jovens,61e524f0587ceee1060b0e97c3d3f1b7bc1ykxyg.html"/>
+    <hyperlink ref="B13" r:id="rId13" location=":~:text=Em%20resumo%2C%20a%20MTV%20Brasil,falência%20da%20emissora%20em%202013" display="https://www.nerdloja.com/blogs/nerd-noob/o-que-realmente-causou-o-fim-da-mtv-brasil-17#:~:text=Em%20resumo%2C%20a%20MTV%20Brasil,falência%20da%20emissora%20em%202013"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://www.youtube.com/watch?v=FkFc6uK83Cw"/>
+    <hyperlink ref="B15" r:id="rId15" display="https://www.uol.com.br/splash/noticias/2023/07/28/incendio-no-xuxa-park-quase-causou-fim-da-carreira-de-xuxa-com-as-criancas.htm"/>
+    <hyperlink ref="C16" r:id="rId16" display="https://www.em.com.br/app/noticia/cultura/2023/07/28/interna_cultura,1526393/incendio-no-xuxa-park-quase-causou-fim-da-carreira-de-xuxa-com-as-criancas.shtmlhttps://www.em.com.br/app/noticia/cultura/2023/07/28/interna_cultura,1526393/incendio-no-xuxa-park-quase-causou-fim-da-carreira-de-xuxa-com-as-criancas.shtml"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
